--- a/main code/data/dcinside.xlsx
+++ b/main code/data/dcinside.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[나갤] 영철 유튜브 후배댓글</t>
+          <t>[야갤] 속보)) 공수처 윤석열 김건희도 통신조회 발각 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:45</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>466</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[야갤] 속보) SNL코리아 김건희 입갤 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>[싱갤] 싱글벙글 엄마 스마트폰 바꿔주세요</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>241</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[싱갤] 싱글벙글 치킨 개수가 부족해서 KFC에 220억 소송건 할머니 </t>
+          <t>[야갤] 존나 시끄러운 와중 안철수 근황....jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1633</t>
         </is>
       </c>
     </row>
